--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H2">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I2">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J2">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.13878289048683</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N2">
-        <v>1.13878289048683</v>
+        <v>0.153373</v>
       </c>
       <c r="O2">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="P2">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="Q2">
-        <v>1.582732349104961</v>
+        <v>0.1058639579812223</v>
       </c>
       <c r="R2">
-        <v>1.582732349104961</v>
+        <v>0.9527756218310002</v>
       </c>
       <c r="S2">
-        <v>0.02737872552771531</v>
+        <v>0.001392957847297281</v>
       </c>
       <c r="T2">
-        <v>0.02737872552771531</v>
+        <v>0.001392957847297281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H3">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I3">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J3">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.96705803484053</v>
+        <v>1.155658333333333</v>
       </c>
       <c r="N3">
-        <v>1.96705803484053</v>
+        <v>3.466975</v>
       </c>
       <c r="O3">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="P3">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="Q3">
-        <v>2.733906884549338</v>
+        <v>2.393039816147223</v>
       </c>
       <c r="R3">
-        <v>2.733906884549338</v>
+        <v>21.537358345325</v>
       </c>
       <c r="S3">
-        <v>0.04729219457271848</v>
+        <v>0.03148761537319796</v>
       </c>
       <c r="T3">
-        <v>0.04729219457271848</v>
+        <v>0.03148761537319794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.58184501189812</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H4">
-        <v>1.58184501189812</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I4">
-        <v>0.08498629309915041</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J4">
-        <v>0.08498629309915041</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.13878289048683</v>
+        <v>0.5479136666666666</v>
       </c>
       <c r="N4">
-        <v>1.13878289048683</v>
+        <v>1.643741</v>
       </c>
       <c r="O4">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289424</v>
       </c>
       <c r="P4">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289423</v>
       </c>
       <c r="Q4">
-        <v>1.801378034951515</v>
+        <v>1.134573413547445</v>
       </c>
       <c r="R4">
-        <v>1.801378034951515</v>
+        <v>10.211160721927</v>
       </c>
       <c r="S4">
-        <v>0.03116094443794174</v>
+        <v>0.01492871577705515</v>
       </c>
       <c r="T4">
-        <v>0.03116094443794174</v>
+        <v>0.01492871577705514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.58184501189812</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H5">
-        <v>1.58184501189812</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I5">
-        <v>0.08498629309915041</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J5">
-        <v>0.08498629309915041</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.96705803484053</v>
+        <v>2.065262333333334</v>
       </c>
       <c r="N5">
-        <v>1.96705803484053</v>
+        <v>6.195787</v>
       </c>
       <c r="O5">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476912</v>
       </c>
       <c r="P5">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476911</v>
       </c>
       <c r="Q5">
-        <v>3.111580940526611</v>
+        <v>4.27657106940989</v>
       </c>
       <c r="R5">
-        <v>3.111580940526611</v>
+        <v>38.489139624689</v>
       </c>
       <c r="S5">
-        <v>0.05382534866120866</v>
+        <v>0.05627111761413336</v>
       </c>
       <c r="T5">
-        <v>0.05382534866120866</v>
+        <v>0.05627111761413335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.07117144294101</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H6">
-        <v>2.07117144294101</v>
+        <v>4.755688</v>
       </c>
       <c r="I6">
-        <v>0.1112758721520764</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J6">
-        <v>0.1112758721520764</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.13878289048683</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N6">
-        <v>1.13878289048683</v>
+        <v>0.153373</v>
       </c>
       <c r="O6">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="P6">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="Q6">
-        <v>2.358614602486142</v>
+        <v>0.08104379284711112</v>
       </c>
       <c r="R6">
-        <v>2.358614602486142</v>
+        <v>0.729394135624</v>
       </c>
       <c r="S6">
-        <v>0.04080024134443658</v>
+        <v>0.001066374140679142</v>
       </c>
       <c r="T6">
-        <v>0.04080024134443658</v>
+        <v>0.001066374140679142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.07117144294101</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H7">
-        <v>2.07117144294101</v>
+        <v>4.755688</v>
       </c>
       <c r="I7">
-        <v>0.1112758721520764</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J7">
-        <v>0.1112758721520764</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.96705803484053</v>
+        <v>1.155658333333333</v>
       </c>
       <c r="N7">
-        <v>1.96705803484053</v>
+        <v>3.466975</v>
       </c>
       <c r="O7">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="P7">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="Q7">
-        <v>4.074114428369368</v>
+        <v>1.831983489311111</v>
       </c>
       <c r="R7">
-        <v>4.074114428369368</v>
+        <v>16.4878514038</v>
       </c>
       <c r="S7">
-        <v>0.07047563080763983</v>
+        <v>0.02410523681730858</v>
       </c>
       <c r="T7">
-        <v>0.07047563080763983</v>
+        <v>0.02410523681730857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.58613100524074</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H8">
-        <v>3.58613100524074</v>
+        <v>4.755688</v>
       </c>
       <c r="I8">
-        <v>0.1926686738656097</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J8">
-        <v>0.1926686738656097</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.13878289048683</v>
+        <v>0.5479136666666666</v>
       </c>
       <c r="N8">
-        <v>1.13878289048683</v>
+        <v>1.643741</v>
       </c>
       <c r="O8">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289424</v>
       </c>
       <c r="P8">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289423</v>
       </c>
       <c r="Q8">
-        <v>4.083824631812491</v>
+        <v>0.8685688165342222</v>
       </c>
       <c r="R8">
-        <v>4.083824631812491</v>
+        <v>7.817119348807999</v>
       </c>
       <c r="S8">
-        <v>0.07064360171885414</v>
+        <v>0.01142862757052463</v>
       </c>
       <c r="T8">
-        <v>0.07064360171885414</v>
+        <v>0.01142862757052462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.58613100524074</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H9">
-        <v>3.58613100524074</v>
+        <v>4.755688</v>
       </c>
       <c r="I9">
-        <v>0.1926686738656097</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J9">
-        <v>0.1926686738656097</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.96705803484053</v>
+        <v>2.065262333333334</v>
       </c>
       <c r="N9">
-        <v>1.96705803484053</v>
+        <v>6.195787</v>
       </c>
       <c r="O9">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476912</v>
       </c>
       <c r="P9">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476911</v>
       </c>
       <c r="Q9">
-        <v>7.054127807849544</v>
+        <v>3.273914431828445</v>
       </c>
       <c r="R9">
-        <v>7.054127807849544</v>
+        <v>29.465229886456</v>
       </c>
       <c r="S9">
-        <v>0.1220250721467556</v>
+        <v>0.04307816263590071</v>
       </c>
       <c r="T9">
-        <v>0.1220250721467556</v>
+        <v>0.04307816263590069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.24462222975626</v>
+        <v>2.25799</v>
       </c>
       <c r="H10">
-        <v>7.24462222975626</v>
+        <v>6.77397</v>
       </c>
       <c r="I10">
-        <v>0.3892249768970036</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J10">
-        <v>0.3892249768970036</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.13878289048683</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N10">
-        <v>1.13878289048683</v>
+        <v>0.153373</v>
       </c>
       <c r="O10">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="P10">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="Q10">
-        <v>8.250051843286977</v>
+        <v>0.1154382334233333</v>
       </c>
       <c r="R10">
-        <v>8.250051843286977</v>
+        <v>1.03894410081</v>
       </c>
       <c r="S10">
-        <v>0.1427126356105057</v>
+        <v>0.001518936153451674</v>
       </c>
       <c r="T10">
-        <v>0.1427126356105057</v>
+        <v>0.001518936153451674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.24462222975626</v>
+        <v>2.25799</v>
       </c>
       <c r="H11">
-        <v>7.24462222975626</v>
+        <v>6.77397</v>
       </c>
       <c r="I11">
-        <v>0.3892249768970036</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J11">
-        <v>0.3892249768970036</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.96705803484053</v>
+        <v>1.155658333333333</v>
       </c>
       <c r="N11">
-        <v>1.96705803484053</v>
+        <v>3.466975</v>
       </c>
       <c r="O11">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="P11">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="Q11">
-        <v>14.25059236642637</v>
+        <v>2.609464960083333</v>
       </c>
       <c r="R11">
-        <v>14.25059236642637</v>
+        <v>23.48518464075</v>
       </c>
       <c r="S11">
-        <v>0.2465123412864979</v>
+        <v>0.03433533718850853</v>
       </c>
       <c r="T11">
-        <v>0.2465123412864979</v>
+        <v>0.03433533718850852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.73932754180484</v>
+        <v>2.25799</v>
       </c>
       <c r="H12">
-        <v>2.73932754180484</v>
+        <v>6.77397</v>
       </c>
       <c r="I12">
-        <v>0.147173263885726</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J12">
-        <v>0.147173263885726</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.13878289048683</v>
+        <v>0.5479136666666666</v>
       </c>
       <c r="N12">
-        <v>1.13878289048683</v>
+        <v>1.643741</v>
       </c>
       <c r="O12">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289424</v>
       </c>
       <c r="P12">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289423</v>
       </c>
       <c r="Q12">
-        <v>3.119499336046698</v>
+        <v>1.237183580196667</v>
       </c>
       <c r="R12">
-        <v>3.119499336046698</v>
+        <v>11.13465222177</v>
       </c>
       <c r="S12">
-        <v>0.05396232417553803</v>
+        <v>0.01627886024144281</v>
       </c>
       <c r="T12">
-        <v>0.05396232417553803</v>
+        <v>0.01627886024144281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,796 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.73932754180484</v>
+        <v>2.25799</v>
       </c>
       <c r="H13">
-        <v>2.73932754180484</v>
+        <v>6.77397</v>
       </c>
       <c r="I13">
-        <v>0.147173263885726</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J13">
-        <v>0.147173263885726</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.96705803484053</v>
+        <v>2.065262333333334</v>
       </c>
       <c r="N13">
-        <v>1.96705803484053</v>
+        <v>6.195787</v>
       </c>
       <c r="O13">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476912</v>
       </c>
       <c r="P13">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476911</v>
       </c>
       <c r="Q13">
-        <v>5.388416251167168</v>
+        <v>4.663341696043334</v>
       </c>
       <c r="R13">
-        <v>5.388416251167168</v>
+        <v>41.97007526439</v>
       </c>
       <c r="S13">
-        <v>0.09321093971018792</v>
+        <v>0.06136024511084669</v>
       </c>
       <c r="T13">
-        <v>0.09321093971018792</v>
+        <v>0.06136024511084668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.591444666666667</v>
+      </c>
+      <c r="H14">
+        <v>10.774334</v>
+      </c>
+      <c r="I14">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="J14">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.153373</v>
+      </c>
+      <c r="O14">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="P14">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="Q14">
+        <v>0.1836102142868889</v>
+      </c>
+      <c r="R14">
+        <v>1.652491928582</v>
+      </c>
+      <c r="S14">
+        <v>0.002415943005647146</v>
+      </c>
+      <c r="T14">
+        <v>0.002415943005647145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.591444666666667</v>
+      </c>
+      <c r="H15">
+        <v>10.774334</v>
+      </c>
+      <c r="I15">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="J15">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.155658333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.466975</v>
+      </c>
+      <c r="O15">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="P15">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="Q15">
+        <v>4.150482957738889</v>
+      </c>
+      <c r="R15">
+        <v>37.35434661965</v>
+      </c>
+      <c r="S15">
+        <v>0.05461205037394792</v>
+      </c>
+      <c r="T15">
+        <v>0.0546120503739479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.591444666666667</v>
+      </c>
+      <c r="H16">
+        <v>10.774334</v>
+      </c>
+      <c r="I16">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="J16">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.5479136666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.643741</v>
+      </c>
+      <c r="O16">
+        <v>0.1434344490289424</v>
+      </c>
+      <c r="P16">
+        <v>0.1434344490289423</v>
+      </c>
+      <c r="Q16">
+        <v>1.967801615943778</v>
+      </c>
+      <c r="R16">
+        <v>17.710214543494</v>
+      </c>
+      <c r="S16">
+        <v>0.02589233158408224</v>
+      </c>
+      <c r="T16">
+        <v>0.02589233158408223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.591444666666667</v>
+      </c>
+      <c r="H17">
+        <v>10.774334</v>
+      </c>
+      <c r="I17">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="J17">
+        <v>0.180516826741236</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.065262333333334</v>
+      </c>
+      <c r="N17">
+        <v>6.195787</v>
+      </c>
+      <c r="O17">
+        <v>0.5406504398476912</v>
+      </c>
+      <c r="P17">
+        <v>0.5406504398476911</v>
+      </c>
+      <c r="Q17">
+        <v>7.417275392317557</v>
+      </c>
+      <c r="R17">
+        <v>66.75547853085801</v>
+      </c>
+      <c r="S17">
+        <v>0.09759650177755871</v>
+      </c>
+      <c r="T17">
+        <v>0.09759650177755869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.313193000000001</v>
+      </c>
+      <c r="H18">
+        <v>21.939579</v>
+      </c>
+      <c r="I18">
+        <v>0.3675831082569614</v>
+      </c>
+      <c r="J18">
+        <v>0.3675831082569613</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.153373</v>
+      </c>
+      <c r="O18">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="P18">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="Q18">
+        <v>0.373882116663</v>
+      </c>
+      <c r="R18">
+        <v>3.364939049967</v>
+      </c>
+      <c r="S18">
+        <v>0.004919540496135816</v>
+      </c>
+      <c r="T18">
+        <v>0.004919540496135816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.313193000000001</v>
+      </c>
+      <c r="H19">
+        <v>21.939579</v>
+      </c>
+      <c r="I19">
+        <v>0.3675831082569614</v>
+      </c>
+      <c r="J19">
+        <v>0.3675831082569613</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.155658333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.466975</v>
+      </c>
+      <c r="O19">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="P19">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="Q19">
+        <v>8.451552433725</v>
+      </c>
+      <c r="R19">
+        <v>76.063971903525</v>
+      </c>
+      <c r="S19">
+        <v>0.1112055179959346</v>
+      </c>
+      <c r="T19">
+        <v>0.1112055179959345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.313193000000001</v>
+      </c>
+      <c r="H20">
+        <v>21.939579</v>
+      </c>
+      <c r="I20">
+        <v>0.3675831082569614</v>
+      </c>
+      <c r="J20">
+        <v>0.3675831082569613</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.5479136666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.643741</v>
+      </c>
+      <c r="O20">
+        <v>0.1434344490289424</v>
+      </c>
+      <c r="P20">
+        <v>0.1434344490289423</v>
+      </c>
+      <c r="Q20">
+        <v>4.006998391671</v>
+      </c>
+      <c r="R20">
+        <v>36.062985525039</v>
+      </c>
+      <c r="S20">
+        <v>0.05272408060518333</v>
+      </c>
+      <c r="T20">
+        <v>0.05272408060518331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.313193000000001</v>
+      </c>
+      <c r="H21">
+        <v>21.939579</v>
+      </c>
+      <c r="I21">
+        <v>0.3675831082569614</v>
+      </c>
+      <c r="J21">
+        <v>0.3675831082569613</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.065262333333334</v>
+      </c>
+      <c r="N21">
+        <v>6.195787</v>
+      </c>
+      <c r="O21">
+        <v>0.5406504398476912</v>
+      </c>
+      <c r="P21">
+        <v>0.5406504398476911</v>
+      </c>
+      <c r="Q21">
+        <v>15.103662039297</v>
+      </c>
+      <c r="R21">
+        <v>135.932958353673</v>
+      </c>
+      <c r="S21">
+        <v>0.1987339691597077</v>
+      </c>
+      <c r="T21">
+        <v>0.1987339691597076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.076773</v>
+      </c>
+      <c r="H22">
+        <v>9.230319</v>
+      </c>
+      <c r="I22">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="J22">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.153373</v>
+      </c>
+      <c r="O22">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="P22">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="Q22">
+        <v>0.157297968443</v>
+      </c>
+      <c r="R22">
+        <v>1.415681715987</v>
+      </c>
+      <c r="S22">
+        <v>0.002069726502625773</v>
+      </c>
+      <c r="T22">
+        <v>0.002069726502625773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.076773</v>
+      </c>
+      <c r="H23">
+        <v>9.230319</v>
+      </c>
+      <c r="I23">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="J23">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.155658333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.466975</v>
+      </c>
+      <c r="O23">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="P23">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="Q23">
+        <v>3.555698357224999</v>
+      </c>
+      <c r="R23">
+        <v>32.00128521502499</v>
+      </c>
+      <c r="S23">
+        <v>0.04678587522863208</v>
+      </c>
+      <c r="T23">
+        <v>0.04678587522863207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.076773</v>
+      </c>
+      <c r="H24">
+        <v>9.230319</v>
+      </c>
+      <c r="I24">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="J24">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.5479136666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.643741</v>
+      </c>
+      <c r="O24">
+        <v>0.1434344490289424</v>
+      </c>
+      <c r="P24">
+        <v>0.1434344490289423</v>
+      </c>
+      <c r="Q24">
+        <v>1.685805975931</v>
+      </c>
+      <c r="R24">
+        <v>15.172253783379</v>
+      </c>
+      <c r="S24">
+        <v>0.02218183325065422</v>
+      </c>
+      <c r="T24">
+        <v>0.02218183325065422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.076773</v>
+      </c>
+      <c r="H25">
+        <v>9.230319</v>
+      </c>
+      <c r="I25">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="J25">
+        <v>0.1546478785314562</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.065262333333334</v>
+      </c>
+      <c r="N25">
+        <v>6.195787</v>
+      </c>
+      <c r="O25">
+        <v>0.5406504398476912</v>
+      </c>
+      <c r="P25">
+        <v>0.5406504398476911</v>
+      </c>
+      <c r="Q25">
+        <v>6.354343385117</v>
+      </c>
+      <c r="R25">
+        <v>57.189090466053</v>
+      </c>
+      <c r="S25">
+        <v>0.08361044354954411</v>
+      </c>
+      <c r="T25">
+        <v>0.08361044354954408</v>
       </c>
     </row>
   </sheetData>
